--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8D664D-06E6-408C-A96A-4902E7FDCCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE52BE95-E5EE-4260-9C09-D9285DA89842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>02_loops.js</t>
+  </si>
+  <si>
+    <t>Write a fucntion that searches  an element in an array and returns the index , if the element is not present, return -1.</t>
+  </si>
+  <si>
+    <t>Sl no.</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Write a fucntion that returns then. of negative numbers in ar array</t>
   </si>
 </sst>
 </file>
@@ -66,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,12 +86,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,33 +394,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="79" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE52BE95-E5EE-4260-9C09-D9285DA89842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC199A5-C90F-43EA-B95F-A49C62C64CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Write a fucntion that returns then. of negative numbers in ar array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a fucntion that returns a largest no. in an array </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Write a fucntion that returns a smallest no. in an array.</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,15 +461,27 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">

--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC199A5-C90F-43EA-B95F-A49C62C64CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BC251E-1D5B-4BAE-BFB1-55DD849FF483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Write a fucntion that returns a smallest no. in an array.</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Find the second largest no. in an array.and corner cases</t>
   </si>
 </sst>
 </file>
@@ -111,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -120,6 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,13 +410,14 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="79" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -422,7 +430,9 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
@@ -434,7 +444,9 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="4">
+        <v>45850</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -446,7 +458,9 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="4">
+        <v>45850</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -458,7 +472,9 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="4">
+        <v>45850</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -470,7 +486,9 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="4">
+        <v>45850</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -482,13 +500,23 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="4">
+        <v>45850</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45851</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>

--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BC251E-1D5B-4BAE-BFB1-55DD849FF483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8C21B0-4517-45C6-89F4-00562A8F89D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Find the second largest no. in an array.and corner cases</t>
+  </si>
+  <si>
+    <t>Star Pattern</t>
+  </si>
+  <si>
+    <t>03_stars.js</t>
+  </si>
+  <si>
+    <t>7--14</t>
   </si>
 </sst>
 </file>
@@ -117,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -127,6 +136,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +422,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,10 +531,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45852</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>

--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8C21B0-4517-45C6-89F4-00562A8F89D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE57D44A-7EC5-4552-87A8-C57DB9A2623F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -76,16 +76,39 @@
   </si>
   <si>
     <t>7--14</t>
+  </si>
+  <si>
+    <t>Write a function that count the digits of a number</t>
+  </si>
+  <si>
+    <t>04_countDigits.js</t>
+  </si>
+  <si>
+    <t>Given a signed 32-bit integer x, reverse the no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a function to check a palindrome no. </t>
+  </si>
+  <si>
+    <t>05_palindrome.js</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,10 +146,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -139,8 +163,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,13 +448,13 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="79" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -453,7 +479,7 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4">
@@ -467,7 +493,7 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4">
@@ -481,7 +507,7 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4">
@@ -495,7 +521,7 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4">
@@ -509,7 +535,7 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4">
@@ -523,7 +549,7 @@
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4">
@@ -537,7 +563,7 @@
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="4">
@@ -545,22 +571,46 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45853</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45857</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45857</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
@@ -617,6 +667,12 @@
       <c r="D20" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{DE7DA128-BD40-4560-99AF-F106470C04A5}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{14E8FDE0-F81B-4B72-90F7-C976F42CFC65}"/>
+    <hyperlink ref="C10" r:id="rId3" display="Programming 101\05_palindrome.js" xr:uid="{43A3928B-CF65-4684-83E5-33271FE19537}"/>
+    <hyperlink ref="C11" r:id="rId4" display="Programming 101\05_palindrome.js" xr:uid="{E1138DFE-F019-425E-B370-496A5DBD3C7C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE57D44A-7EC5-4552-87A8-C57DB9A2623F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCB95D1-A387-4B3B-BCAD-360E09020268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>05_palindrome.js</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -150,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -164,6 +167,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,7 +452,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,10 +617,16 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="2">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="4">
+        <v>45858</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -672,6 +682,7 @@
     <hyperlink ref="C8" r:id="rId2" xr:uid="{14E8FDE0-F81B-4B72-90F7-C976F42CFC65}"/>
     <hyperlink ref="C10" r:id="rId3" display="Programming 101\05_palindrome.js" xr:uid="{43A3928B-CF65-4684-83E5-33271FE19537}"/>
     <hyperlink ref="C11" r:id="rId4" display="Programming 101\05_palindrome.js" xr:uid="{E1138DFE-F019-425E-B370-496A5DBD3C7C}"/>
+    <hyperlink ref="B12" r:id="rId5" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array/" xr:uid="{5D4AFE06-6F7A-413E-800F-12CA9F0AD72B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCB95D1-A387-4B3B-BCAD-360E09020268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9CCEF7-C80B-4C04-96ED-157B36EAC2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -94,6 +94,36 @@
   </si>
   <si>
     <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>remove the element which is equal to val from first k places</t>
+  </si>
+  <si>
+    <t>2 Pointer</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Programming 101\06_remove_duplicates.js</t>
+  </si>
+  <si>
+    <t>Intuitive</t>
+  </si>
+  <si>
+    <t> Reverse String</t>
+  </si>
+  <si>
+    <t>l-344</t>
+  </si>
+  <si>
+    <t>l-26</t>
+  </si>
+  <si>
+    <t>l-27</t>
+  </si>
+  <si>
+    <t>Leetcode</t>
   </si>
 </sst>
 </file>
@@ -125,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,12 +178,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -168,6 +209,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -449,20 +491,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="79" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -475,8 +517,14 @@
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -490,7 +538,7 @@
         <v>45850</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -504,7 +552,7 @@
         <v>45850</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -518,7 +566,7 @@
         <v>45850</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -532,7 +580,7 @@
         <v>45850</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -546,7 +594,7 @@
         <v>45850</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -560,7 +608,7 @@
         <v>45851</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -574,7 +622,7 @@
         <v>45852</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>15</v>
       </c>
@@ -588,7 +636,7 @@
         <v>45853</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -602,7 +650,7 @@
         <v>45857</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>17</v>
       </c>
@@ -616,37 +664,76 @@
         <v>45857</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="4">
         <v>45858</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45859</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45860</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -654,7 +741,6 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
@@ -683,7 +769,12 @@
     <hyperlink ref="C10" r:id="rId3" display="Programming 101\05_palindrome.js" xr:uid="{43A3928B-CF65-4684-83E5-33271FE19537}"/>
     <hyperlink ref="C11" r:id="rId4" display="Programming 101\05_palindrome.js" xr:uid="{E1138DFE-F019-425E-B370-496A5DBD3C7C}"/>
     <hyperlink ref="B12" r:id="rId5" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array/" xr:uid="{5D4AFE06-6F7A-413E-800F-12CA9F0AD72B}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{A181ED90-D037-4516-8380-C29B9A34C2F9}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{67873468-E1BE-41AA-9732-84BAD0087A8A}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{72E6F1B8-DD45-4E20-B5EF-297A22FD83E9}"/>
+    <hyperlink ref="B14" r:id="rId9" display="https://leetcode.com/problems/reverse-string/" xr:uid="{DD362BB6-8D7D-4EEC-9764-2BAE6589F1BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9CCEF7-C80B-4C04-96ED-157B36EAC2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53FFA70-876B-4628-A536-FBC4C9054397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,16 +114,16 @@
     <t> Reverse String</t>
   </si>
   <si>
-    <t>l-344</t>
-  </si>
-  <si>
-    <t>l-26</t>
-  </si>
-  <si>
-    <t>l-27</t>
-  </si>
-  <si>
     <t>Leetcode</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Programming 101\07_sell Stocks.js</t>
   </si>
 </sst>
 </file>
@@ -209,7 +209,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,7 +521,7 @@
         <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -683,8 +683,8 @@
       <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" t="s">
-        <v>27</v>
+      <c r="G12">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -706,8 +706,8 @@
       <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" t="s">
-        <v>28</v>
+      <c r="G13">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -723,15 +723,27 @@
       <c r="D14" s="4">
         <v>45860</v>
       </c>
-      <c r="G14" t="s">
-        <v>26</v>
+      <c r="G14">
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D15" s="2"/>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>121</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -773,8 +785,10 @@
     <hyperlink ref="C13" r:id="rId7" xr:uid="{67873468-E1BE-41AA-9732-84BAD0087A8A}"/>
     <hyperlink ref="C14" r:id="rId8" xr:uid="{72E6F1B8-DD45-4E20-B5EF-297A22FD83E9}"/>
     <hyperlink ref="B14" r:id="rId9" display="https://leetcode.com/problems/reverse-string/" xr:uid="{DD362BB6-8D7D-4EEC-9764-2BAE6589F1BF}"/>
+    <hyperlink ref="B15" r:id="rId10" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{717A593E-914B-4AE1-99BD-791D51960306}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{C1445126-E5F2-43B5-AC95-94CEFF1FF6B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53FFA70-876B-4628-A536-FBC4C9054397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4853136-699C-4871-8FC2-CC58B26D3A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>Programming 101\07_sell Stocks.js</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>Programming 101\08_MergeSorted Array.js</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -147,12 +162,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -194,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -210,6 +231,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -491,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +526,7 @@
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -524,7 +546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -538,7 +560,7 @@
         <v>45850</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -552,7 +574,7 @@
         <v>45850</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -566,7 +588,7 @@
         <v>45850</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -580,7 +602,7 @@
         <v>45850</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -594,7 +616,7 @@
         <v>45850</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -608,7 +630,7 @@
         <v>45851</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -622,7 +644,7 @@
         <v>45852</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>15</v>
       </c>
@@ -636,7 +658,7 @@
         <v>45853</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -650,7 +672,7 @@
         <v>45857</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>17</v>
       </c>
@@ -664,7 +686,7 @@
         <v>45857</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>18</v>
       </c>
@@ -686,8 +708,14 @@
       <c r="G12">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>19</v>
       </c>
@@ -709,8 +737,14 @@
       <c r="G13">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -726,8 +760,14 @@
       <c r="G14">
         <v>344</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>21</v>
       </c>
@@ -737,19 +777,47 @@
       <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="4">
+        <v>45885</v>
+      </c>
       <c r="F15" t="s">
         <v>28</v>
       </c>
       <c r="G15">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="H15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>22</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45885</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>88</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -787,8 +855,10 @@
     <hyperlink ref="B14" r:id="rId9" display="https://leetcode.com/problems/reverse-string/" xr:uid="{DD362BB6-8D7D-4EEC-9764-2BAE6589F1BF}"/>
     <hyperlink ref="B15" r:id="rId10" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{717A593E-914B-4AE1-99BD-791D51960306}"/>
     <hyperlink ref="C15" r:id="rId11" xr:uid="{C1445126-E5F2-43B5-AC95-94CEFF1FF6B8}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{DAB49E91-0A2E-4EA7-80D2-40E3D64FEBD5}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://leetcode.com/problems/merge-sorted-array/" xr:uid="{D121A59A-28A5-4E74-9A9F-843427B49D56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4853136-699C-4871-8FC2-CC58B26D3A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9BE687-DA59-489F-834D-40D31E5D69E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easy </t>
+  </si>
+  <si>
+    <t>Programming 101\09_move zeroes.js</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
   </si>
 </sst>
 </file>
@@ -516,7 +528,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,24 +831,49 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45885</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45885</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -857,8 +894,12 @@
     <hyperlink ref="C15" r:id="rId11" xr:uid="{C1445126-E5F2-43B5-AC95-94CEFF1FF6B8}"/>
     <hyperlink ref="C16" r:id="rId12" xr:uid="{DAB49E91-0A2E-4EA7-80D2-40E3D64FEBD5}"/>
     <hyperlink ref="B16" r:id="rId13" display="https://leetcode.com/problems/merge-sorted-array/" xr:uid="{D121A59A-28A5-4E74-9A9F-843427B49D56}"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://leetcode.com/problems/move-zeroes/" xr:uid="{D4D4853F-1060-4068-BF52-1DAC5D1658D9}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{26BD5845-B895-41BA-A3BF-47ECCF0921A5}"/>
+    <hyperlink ref="B18" r:id="rId16" display="https://leetcode.com/problems/max-consecutive-ones/" xr:uid="{15A0EC59-5A77-4E73-A698-E762BF8DAB1E}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{FF6F2ADE-350E-4FF3-858B-60BC9205F053}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9BE687-DA59-489F-834D-40D31E5D69E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAD15FD-3DDE-4EC9-AF42-24C926249642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Single Number</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,8 +834,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>23</v>
+      </c>
       <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
@@ -849,8 +854,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>24</v>
+      </c>
       <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
@@ -867,13 +874,33 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45885</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>136</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -898,8 +925,10 @@
     <hyperlink ref="C17" r:id="rId15" xr:uid="{26BD5845-B895-41BA-A3BF-47ECCF0921A5}"/>
     <hyperlink ref="B18" r:id="rId16" display="https://leetcode.com/problems/max-consecutive-ones/" xr:uid="{15A0EC59-5A77-4E73-A698-E762BF8DAB1E}"/>
     <hyperlink ref="C18" r:id="rId17" xr:uid="{FF6F2ADE-350E-4FF3-858B-60BC9205F053}"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://leetcode.com/problems/single-number/" xr:uid="{A723CC76-B9AE-4819-936D-1CCF9B5615B1}"/>
+    <hyperlink ref="C19" r:id="rId19" xr:uid="{CBD8C07F-43F8-48FC-AD85-85C1BFD6900E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAD15FD-3DDE-4EC9-AF42-24C926249642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FDB6DD-6B3E-430B-A594-CBF6F8F5C5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>Single Number</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>Trick factor</t>
+  </si>
+  <si>
+    <t>Tough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revise </t>
   </si>
 </sst>
 </file>
@@ -222,7 +234,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -244,9 +258,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -528,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,6 +555,7 @@
     <col min="2" max="2" width="79" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -554,11 +571,20 @@
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -574,6 +600,11 @@
       <c r="D2" s="4">
         <v>45850</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -588,6 +619,11 @@
       <c r="D3" s="4">
         <v>45850</v>
       </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -602,6 +638,11 @@
       <c r="D4" s="4">
         <v>45850</v>
       </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -616,6 +657,11 @@
       <c r="D5" s="4">
         <v>45850</v>
       </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -630,6 +676,11 @@
       <c r="D6" s="4">
         <v>45850</v>
       </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -644,6 +695,11 @@
       <c r="D7" s="4">
         <v>45851</v>
       </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -658,6 +714,11 @@
       <c r="D8" s="4">
         <v>45852</v>
       </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -672,12 +733,17 @@
       <c r="D9" s="4">
         <v>45853</v>
       </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -686,6 +752,11 @@
       <c r="D10" s="4">
         <v>45857</v>
       </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -700,12 +771,17 @@
       <c r="D11" s="4">
         <v>45857</v>
       </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>18</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -714,19 +790,19 @@
       <c r="D12" s="4">
         <v>45858</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>26</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -743,19 +819,19 @@
       <c r="D13" s="4">
         <v>45859</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>27</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -763,7 +839,7 @@
       <c r="A14" s="2">
         <v>20</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -772,13 +848,15 @@
       <c r="D14" s="4">
         <v>45860</v>
       </c>
-      <c r="G14">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
         <v>344</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -786,25 +864,26 @@
       <c r="A15" s="2">
         <v>21</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="4">
-        <v>45885</v>
-      </c>
-      <c r="F15" t="s">
+        <v>45860</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>121</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -812,7 +891,7 @@
       <c r="A16" s="2">
         <v>22</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -821,16 +900,17 @@
       <c r="D16" s="4">
         <v>45885</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>88</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -838,7 +918,7 @@
       <c r="A17" s="2">
         <v>23</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -847,18 +927,21 @@
       <c r="D17" s="4">
         <v>45885</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>283</v>
       </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>24</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -867,19 +950,22 @@
       <c r="D18" s="4">
         <v>45885</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>485</v>
       </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>25</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>39</v>
+      <c r="B19" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>37</v>
@@ -887,24 +973,46 @@
       <c r="D19" s="4">
         <v>45885</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>268</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45885</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G19">
+      <c r="G20" s="2">
         <v>136</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -925,10 +1033,12 @@
     <hyperlink ref="C17" r:id="rId15" xr:uid="{26BD5845-B895-41BA-A3BF-47ECCF0921A5}"/>
     <hyperlink ref="B18" r:id="rId16" display="https://leetcode.com/problems/max-consecutive-ones/" xr:uid="{15A0EC59-5A77-4E73-A698-E762BF8DAB1E}"/>
     <hyperlink ref="C18" r:id="rId17" xr:uid="{FF6F2ADE-350E-4FF3-858B-60BC9205F053}"/>
-    <hyperlink ref="B19" r:id="rId18" display="https://leetcode.com/problems/single-number/" xr:uid="{A723CC76-B9AE-4819-936D-1CCF9B5615B1}"/>
-    <hyperlink ref="C19" r:id="rId19" xr:uid="{CBD8C07F-43F8-48FC-AD85-85C1BFD6900E}"/>
+    <hyperlink ref="B20" r:id="rId18" display="https://leetcode.com/problems/single-number/" xr:uid="{A723CC76-B9AE-4819-936D-1CCF9B5615B1}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{CBD8C07F-43F8-48FC-AD85-85C1BFD6900E}"/>
+    <hyperlink ref="B19" r:id="rId20" display="https://leetcode.com/problems/missing-number/" xr:uid="{43F27CE2-FD56-4B76-9A4B-B84161CBF6CE}"/>
+    <hyperlink ref="C19" r:id="rId21" xr:uid="{741BD2CD-F393-4511-B8BE-F1A13962C1C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FDB6DD-6B3E-430B-A594-CBF6F8F5C5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3095DE72-FEAB-4C3C-8EC8-016B401D2A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t xml:space="preserve">Revise </t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>03_Practice\01_array.js</t>
+  </si>
+  <si>
+    <t> Given an array of integers nums and an integer target, return indices of the two numbers such that they add up to target.</t>
   </si>
 </sst>
 </file>
@@ -203,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -239,12 +248,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -258,11 +278,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -544,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,7 +822,7 @@
       <c r="G12" s="2">
         <v>26</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -828,7 +851,7 @@
       <c r="G13" s="2">
         <v>27</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -853,7 +876,7 @@
       <c r="G14" s="2">
         <v>344</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -880,7 +903,7 @@
       <c r="G15" s="2">
         <v>121</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -907,7 +930,7 @@
       <c r="G16" s="2">
         <v>88</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -1001,7 +1024,7 @@
       <c r="G20" s="2">
         <v>136</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -1009,10 +1032,56 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="2">
+        <v>27</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="10">
+        <v>45886</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="11">
+        <v>14</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>28</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="10">
+        <v>45886</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1037,8 +1106,12 @@
     <hyperlink ref="C20" r:id="rId19" xr:uid="{CBD8C07F-43F8-48FC-AD85-85C1BFD6900E}"/>
     <hyperlink ref="B19" r:id="rId20" display="https://leetcode.com/problems/missing-number/" xr:uid="{43F27CE2-FD56-4B76-9A4B-B84161CBF6CE}"/>
     <hyperlink ref="C19" r:id="rId21" xr:uid="{741BD2CD-F393-4511-B8BE-F1A13962C1C2}"/>
+    <hyperlink ref="B21" r:id="rId22" display="https://leetcode.com/problems/longest-common-prefix/" xr:uid="{16B8E2E3-06E4-4AD5-83F8-20BFD7CCCA2D}"/>
+    <hyperlink ref="C21" r:id="rId23" xr:uid="{763F07D8-6686-4EE6-96E7-9AB241B939B2}"/>
+    <hyperlink ref="B22" r:id="rId24" display="https://leetcode.com/problems/two-sum/" xr:uid="{53D08610-6EB0-4534-B5C2-6D8EBA22E795}"/>
+    <hyperlink ref="C22" r:id="rId25" xr:uid="{7235A3C9-0CB1-49AF-9D83-A04B5DE55AD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3095DE72-FEAB-4C3C-8EC8-016B401D2A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1799F0AA-E711-4A39-8955-E81432046CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -175,6 +175,21 @@
   </si>
   <si>
     <t> Given an array of integers nums and an integer target, return indices of the two numbers such that they add up to target.</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Sum of 1st n nos using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sum of all nos in array using recursion and variants</t>
+  </si>
+  <si>
+    <t>Fatoorial using recursion</t>
+  </si>
+  <si>
+    <t>02_Recursion\01_recursion.js</t>
   </si>
 </sst>
 </file>
@@ -212,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -235,36 +250,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,11 +270,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,19 +1022,20 @@
       <c r="A21" s="2">
         <v>27</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="4">
         <v>45886</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="2">
         <v>14</v>
       </c>
       <c r="H21" s="7" t="s">
@@ -1061,19 +1049,20 @@
       <c r="A22" s="2">
         <v>28</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="4">
         <v>45886</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="2">
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -1082,6 +1071,122 @@
       <c r="I22" s="2" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>29</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="4">
+        <v>45890</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>30</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="4">
+        <v>45890</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4">
+        <v>45890</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>32</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="4">
+        <v>45890</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="2">
+        <v>231</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1110,8 +1215,13 @@
     <hyperlink ref="C21" r:id="rId23" xr:uid="{763F07D8-6686-4EE6-96E7-9AB241B939B2}"/>
     <hyperlink ref="B22" r:id="rId24" display="https://leetcode.com/problems/two-sum/" xr:uid="{53D08610-6EB0-4534-B5C2-6D8EBA22E795}"/>
     <hyperlink ref="C22" r:id="rId25" xr:uid="{7235A3C9-0CB1-49AF-9D83-A04B5DE55AD5}"/>
+    <hyperlink ref="B26" r:id="rId26" display="https://leetcode.com/problems/power-of-two/" xr:uid="{92B8A453-0962-4756-A844-C717423A2886}"/>
+    <hyperlink ref="C23" r:id="rId27" xr:uid="{C6E6C986-1CB3-40DF-868E-47E57D944E49}"/>
+    <hyperlink ref="C24" r:id="rId28" xr:uid="{7DAEA23B-50C2-4C98-BFE0-EE186C115F8C}"/>
+    <hyperlink ref="C25" r:id="rId29" xr:uid="{7AF5710D-5AE6-4733-99C7-38E6965F6548}"/>
+    <hyperlink ref="C26" r:id="rId30" xr:uid="{7EB80946-D84E-46A8-99EB-C63C760FDEC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1799F0AA-E711-4A39-8955-E81432046CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D8B0EC-436F-48FE-978E-38591B39CA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3444" yWindow="3864" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>02_Recursion\01_recursion.js</t>
+  </si>
+  <si>
+    <t>Fibonacci Number</t>
+  </si>
+  <si>
+    <t>Recusrion +DP</t>
   </si>
 </sst>
 </file>
@@ -255,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -273,6 +279,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -557,7 +564,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,12 +1173,22 @@
       <c r="A27" s="2">
         <v>33</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="B27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="4">
+        <v>45891</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2">
+        <v>509</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
@@ -1220,8 +1237,10 @@
     <hyperlink ref="C24" r:id="rId28" xr:uid="{7DAEA23B-50C2-4C98-BFE0-EE186C115F8C}"/>
     <hyperlink ref="C25" r:id="rId29" xr:uid="{7AF5710D-5AE6-4733-99C7-38E6965F6548}"/>
     <hyperlink ref="C26" r:id="rId30" xr:uid="{7EB80946-D84E-46A8-99EB-C63C760FDEC3}"/>
+    <hyperlink ref="B27" r:id="rId31" display="https://leetcode.com/problems/fibonacci-number/" xr:uid="{0E262CDE-4CEE-4564-A1EF-AD752A52D825}"/>
+    <hyperlink ref="C27" r:id="rId32" xr:uid="{4CBFEB5C-D155-430F-88B8-B5B58D147D23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D8B0EC-436F-48FE-978E-38591B39CA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC60DD5-FC07-4331-91B9-6ACC3CFA9268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3444" yWindow="3864" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>Recusrion +DP</t>
+  </si>
+  <si>
+    <t>Linear Search</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>03_sorting and Searching\02_binary Search.js</t>
+  </si>
+  <si>
+    <t>03_sorting and Searching\01_linear Search.js</t>
   </si>
 </sst>
 </file>
@@ -561,17 +573,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B30" activeCellId="1" sqref="A26:A31 B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="79" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1185,25 +1198,66 @@
       <c r="E27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G27" s="2">
         <v>509</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="H27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>34</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="4">
+        <v>45892</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="4">
+        <v>45892</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1239,8 +1293,10 @@
     <hyperlink ref="C26" r:id="rId30" xr:uid="{7EB80946-D84E-46A8-99EB-C63C760FDEC3}"/>
     <hyperlink ref="B27" r:id="rId31" display="https://leetcode.com/problems/fibonacci-number/" xr:uid="{0E262CDE-4CEE-4564-A1EF-AD752A52D825}"/>
     <hyperlink ref="C27" r:id="rId32" xr:uid="{4CBFEB5C-D155-430F-88B8-B5B58D147D23}"/>
+    <hyperlink ref="C29" r:id="rId33" xr:uid="{675FFB1A-D181-4E86-8BDC-B6169C62835A}"/>
+    <hyperlink ref="C28" r:id="rId34" xr:uid="{BF82239F-D05F-497F-A802-EC7CCFD15A3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC60DD5-FC07-4331-91B9-6ACC3CFA9268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF60507B-E0A4-4C82-91D2-2FB37C0E2471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -208,6 +208,24 @@
   </si>
   <si>
     <t>03_sorting and Searching\01_linear Search.js</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>Selection sort</t>
+  </si>
+  <si>
+    <t>Bubble sort</t>
+  </si>
+  <si>
+    <t>03_sorting and Searching\03_bubble Sort.js</t>
+  </si>
+  <si>
+    <t>03_sorting and Searching\04_selection Sort.js</t>
+  </si>
+  <si>
+    <t>03_sorting and Searching\05_insertion sort.js</t>
   </si>
 </sst>
 </file>
@@ -245,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -268,12 +286,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -292,6 +321,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -573,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B30" activeCellId="1" sqref="A26:A31 B30"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,10 +1284,42 @@
       <c r="A30" s="2">
         <v>36</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="11">
+        <v>45896</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="11">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="11">
+        <v>45897</v>
       </c>
     </row>
   </sheetData>
@@ -1295,8 +1358,11 @@
     <hyperlink ref="C27" r:id="rId32" xr:uid="{4CBFEB5C-D155-430F-88B8-B5B58D147D23}"/>
     <hyperlink ref="C29" r:id="rId33" xr:uid="{675FFB1A-D181-4E86-8BDC-B6169C62835A}"/>
     <hyperlink ref="C28" r:id="rId34" xr:uid="{BF82239F-D05F-497F-A802-EC7CCFD15A3E}"/>
+    <hyperlink ref="C30" r:id="rId35" xr:uid="{E3434442-F78B-4668-83D7-B6530AB7D3AF}"/>
+    <hyperlink ref="C31" r:id="rId36" xr:uid="{A97C8337-3D85-4DA3-9754-1C37C2D5A066}"/>
+    <hyperlink ref="C32" r:id="rId37" xr:uid="{144825C1-A732-4CD7-877C-C38C741E61CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF60507B-E0A4-4C82-91D2-2FB37C0E2471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7093BCBE-4EC8-48FE-A1C8-D2B6358BD348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>03_sorting and Searching\05_insertion sort.js</t>
+  </si>
+  <si>
+    <t>03_sorting and Searching\06_merge sort.js</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>Merge Sort-Sort an Array</t>
   </si>
 </sst>
 </file>
@@ -302,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -321,8 +330,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -604,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,6 +1303,12 @@
       <c r="D30" s="11">
         <v>45896</v>
       </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -1307,6 +1323,12 @@
       <c r="D31" s="11">
         <v>45896</v>
       </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
@@ -1320,6 +1342,35 @@
       </c>
       <c r="D32" s="11">
         <v>45897</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>39</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="11">
+        <v>45897</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33">
+        <v>912</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1361,8 +1412,9 @@
     <hyperlink ref="C30" r:id="rId35" xr:uid="{E3434442-F78B-4668-83D7-B6530AB7D3AF}"/>
     <hyperlink ref="C31" r:id="rId36" xr:uid="{A97C8337-3D85-4DA3-9754-1C37C2D5A066}"/>
     <hyperlink ref="C32" r:id="rId37" xr:uid="{144825C1-A732-4CD7-877C-C38C741E61CC}"/>
+    <hyperlink ref="C33" r:id="rId38" xr:uid="{EB262E96-BE4E-4674-A550-5FCDA7DE0249}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7093BCBE-4EC8-48FE-A1C8-D2B6358BD348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F209AC47-EBC8-49C4-A808-757FF58973B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>Merge Sort-Sort an Array</t>
+  </si>
+  <si>
+    <t>04_Linked list\01_design LL.js</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>Design Linked List</t>
   </si>
 </sst>
 </file>
@@ -614,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,7 +1357,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
+      <c r="A33" s="10">
         <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1371,6 +1380,32 @@
       </c>
       <c r="I33" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>40</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="11">
+        <v>45899</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34">
+        <v>707</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1413,8 +1448,10 @@
     <hyperlink ref="C31" r:id="rId36" xr:uid="{A97C8337-3D85-4DA3-9754-1C37C2D5A066}"/>
     <hyperlink ref="C32" r:id="rId37" xr:uid="{144825C1-A732-4CD7-877C-C38C741E61CC}"/>
     <hyperlink ref="C33" r:id="rId38" xr:uid="{EB262E96-BE4E-4674-A550-5FCDA7DE0249}"/>
+    <hyperlink ref="C34" r:id="rId39" xr:uid="{65910809-2E8E-4485-8869-9D0897750175}"/>
+    <hyperlink ref="B34" r:id="rId40" display="https://leetcode.com/problems/design-linked-list/" xr:uid="{90C0BF07-CF3A-43DF-BC66-FC22756C2479}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F209AC47-EBC8-49C4-A808-757FF58973B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2220F388-97A1-491F-8001-FE91B37D896E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>Design Linked List</t>
+  </si>
+  <si>
+    <t>Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>04_Linked list\02_middleNode.js</t>
+  </si>
+  <si>
+    <t>Solw and fast</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
   </si>
 </sst>
 </file>
@@ -320,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -341,7 +353,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -623,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1394,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+      <c r="A34" s="10">
         <v>40</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -1406,6 +1417,55 @@
       </c>
       <c r="I34" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>41</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="11">
+        <v>45899</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35">
+        <v>876</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>42</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="11">
+        <v>45899</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36">
+        <v>206</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1450,8 +1510,11 @@
     <hyperlink ref="C33" r:id="rId38" xr:uid="{EB262E96-BE4E-4674-A550-5FCDA7DE0249}"/>
     <hyperlink ref="C34" r:id="rId39" xr:uid="{65910809-2E8E-4485-8869-9D0897750175}"/>
     <hyperlink ref="B34" r:id="rId40" display="https://leetcode.com/problems/design-linked-list/" xr:uid="{90C0BF07-CF3A-43DF-BC66-FC22756C2479}"/>
+    <hyperlink ref="B35" r:id="rId41" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{2CF80ED5-3340-41FE-9F6F-98E5B5EE42B5}"/>
+    <hyperlink ref="C35" r:id="rId42" xr:uid="{D2F0FCAC-ECDC-4E8A-8A7B-2D10FFD281A0}"/>
+    <hyperlink ref="B36" r:id="rId43" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{F9FA0FE1-3F48-4CC8-9BE1-47AA78C5A9F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2220F388-97A1-491F-8001-FE91B37D896E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D8440D-88A8-460E-9B6D-B240B1E297B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>04_Linked list\03_reverseLL.js</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>floyd algorithm</t>
   </si>
 </sst>
 </file>
@@ -332,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -351,8 +360,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -634,15 +642,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="79" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -1247,7 +1255,7 @@
       <c r="A27" s="2">
         <v>33</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1297,174 +1305,215 @@
       <c r="A29" s="2">
         <v>35</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="4">
         <v>45892</v>
       </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>36</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="4">
         <v>45896</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>37</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="4">
         <v>45896</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32" s="2">
         <v>38</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="4">
         <v>45897</v>
       </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="A33" s="2">
         <v>39</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="4">
         <v>45897</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>912</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+      <c r="A34" s="2">
         <v>40</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="4">
         <v>45899</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>707</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+      <c r="A35" s="2">
         <v>41</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="4">
         <v>45899</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G35">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2">
         <v>876</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
+      <c r="A36" s="2">
         <v>42</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="11">
+      <c r="C36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="4">
         <v>45899</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>206</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="4">
+        <v>45900</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="10">
+        <v>141</v>
+      </c>
+      <c r="I37" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1513,8 +1562,10 @@
     <hyperlink ref="B35" r:id="rId41" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{2CF80ED5-3340-41FE-9F6F-98E5B5EE42B5}"/>
     <hyperlink ref="C35" r:id="rId42" xr:uid="{D2F0FCAC-ECDC-4E8A-8A7B-2D10FFD281A0}"/>
     <hyperlink ref="B36" r:id="rId43" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{F9FA0FE1-3F48-4CC8-9BE1-47AA78C5A9F3}"/>
+    <hyperlink ref="C36" r:id="rId44" xr:uid="{66436BF3-BA66-43C5-9EBD-3FFEE41F5E61}"/>
+    <hyperlink ref="B37" r:id="rId45" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{007C134C-825B-4865-83B7-FA8A8D9E5F5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D8440D-88A8-460E-9B6D-B240B1E297B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11295081-4D66-4F7E-95D1-C42A213951E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -252,9 +252,6 @@
     <t>04_Linked list\02_middleNode.js</t>
   </si>
   <si>
-    <t>Solw and fast</t>
-  </si>
-  <si>
     <t>Reverse Linked List</t>
   </si>
   <si>
@@ -265,13 +262,28 @@
   </si>
   <si>
     <t>floyd algorithm</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>04_Linked list\05_palindrome.js</t>
+  </si>
+  <si>
+    <t>04_Linked list\04_linkeidn list cycle.js</t>
+  </si>
+  <si>
+    <t>Slow and fast</t>
+  </si>
+  <si>
+    <t>Methods</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +299,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,8 +321,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -325,23 +351,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -359,8 +374,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -642,10 +660,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,39 +675,43 @@
     <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -704,8 +729,9 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -723,8 +749,9 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -742,8 +769,9 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -761,8 +789,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -780,8 +809,9 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -799,8 +829,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -818,8 +849,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>15</v>
       </c>
@@ -837,8 +869,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -856,8 +889,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>17</v>
       </c>
@@ -875,8 +909,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>18</v>
       </c>
@@ -892,20 +927,21 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>26</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>19</v>
       </c>
@@ -921,20 +957,21 @@
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>27</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -949,17 +986,18 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
         <v>344</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>21</v>
       </c>
@@ -973,20 +1011,21 @@
         <v>45860</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>121</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>22</v>
       </c>
@@ -1000,20 +1039,21 @@
         <v>45885</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>88</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>23</v>
       </c>
@@ -1027,16 +1067,17 @@
         <v>45885</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>283</v>
       </c>
-      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>24</v>
       </c>
@@ -1050,16 +1091,17 @@
         <v>45885</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>485</v>
       </c>
-      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>25</v>
       </c>
@@ -1074,13 +1116,14 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
         <v>268</v>
       </c>
-      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>26</v>
       </c>
@@ -1094,20 +1137,21 @@
         <v>45885</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>136</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>27</v>
       </c>
@@ -1121,20 +1165,21 @@
         <v>45886</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>14</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>28</v>
       </c>
@@ -1148,20 +1193,21 @@
         <v>45886</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>29</v>
       </c>
@@ -1175,14 +1221,15 @@
         <v>45890</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>30</v>
       </c>
@@ -1196,14 +1243,15 @@
         <v>45890</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>31</v>
       </c>
@@ -1217,14 +1265,15 @@
         <v>45890</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>32</v>
       </c>
@@ -1238,20 +1287,21 @@
         <v>45890</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>231</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>33</v>
       </c>
@@ -1267,20 +1317,21 @@
       <c r="E27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>509</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>34</v>
       </c>
@@ -1294,14 +1345,15 @@
         <v>45892</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>35</v>
       </c>
@@ -1315,14 +1367,15 @@
         <v>45892</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>36</v>
       </c>
@@ -1340,12 +1393,13 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H30" s="2"/>
+      <c r="I30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>37</v>
       </c>
@@ -1363,12 +1417,13 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H31" s="2"/>
+      <c r="I31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>38</v>
       </c>
@@ -1384,12 +1439,13 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H32" s="2"/>
+      <c r="I32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>39</v>
       </c>
@@ -1403,20 +1459,21 @@
         <v>45897</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>912</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>40</v>
       </c>
@@ -1430,20 +1487,21 @@
         <v>45899</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>707</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>41</v>
       </c>
@@ -1457,63 +1515,109 @@
         <v>45899</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2">
+        <v>79</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2">
         <v>876</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>42</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="D36" s="4">
         <v>45899</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>206</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="9" t="s">
-        <v>75</v>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D37" s="4">
         <v>45900</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="2">
+        <v>141</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>44</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="10">
-        <v>141</v>
-      </c>
-      <c r="I37" s="10" t="s">
+      <c r="C38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="4">
+        <v>45900</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="9">
+        <v>234</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1564,8 +1668,11 @@
     <hyperlink ref="B36" r:id="rId43" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{F9FA0FE1-3F48-4CC8-9BE1-47AA78C5A9F3}"/>
     <hyperlink ref="C36" r:id="rId44" xr:uid="{66436BF3-BA66-43C5-9EBD-3FFEE41F5E61}"/>
     <hyperlink ref="B37" r:id="rId45" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{007C134C-825B-4865-83B7-FA8A8D9E5F5A}"/>
+    <hyperlink ref="B38" r:id="rId46" display="https://leetcode.com/problems/palindrome-linked-list/" xr:uid="{FD127C40-A346-4931-B32E-AF83B61D8C73}"/>
+    <hyperlink ref="C38" r:id="rId47" xr:uid="{00E15F8B-2C5F-4C2D-B5E8-899E26ED0C30}"/>
+    <hyperlink ref="C37" r:id="rId48" xr:uid="{A76BCC80-6705-4B3C-BCE2-ADCBD9A14322}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11295081-4D66-4F7E-95D1-C42A213951E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FBDB52-7C22-494D-AF7A-EB23EE44489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -277,6 +277,24 @@
   </si>
   <si>
     <t>Methods</t>
+  </si>
+  <si>
+    <t> Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>04_Linked list\06_intersection.js</t>
+  </si>
+  <si>
+    <t>Remove Linked List Elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentinel </t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>2 pointer</t>
   </si>
 </sst>
 </file>
@@ -328,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -351,12 +369,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,11 +403,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -660,13 +691,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,34 +711,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1608,16 +1639,85 @@
       <c r="F38" s="2">
         <v>2</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="2">
         <v>234</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>45</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="4">
+        <v>45900</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>46</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="13">
+        <v>45901</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="12">
+        <v>203</v>
+      </c>
+      <c r="J40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>47</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="13">
+        <v>45901</v>
+      </c>
+      <c r="E41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="12">
+        <v>19</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1671,8 +1771,12 @@
     <hyperlink ref="B38" r:id="rId46" display="https://leetcode.com/problems/palindrome-linked-list/" xr:uid="{FD127C40-A346-4931-B32E-AF83B61D8C73}"/>
     <hyperlink ref="C38" r:id="rId47" xr:uid="{00E15F8B-2C5F-4C2D-B5E8-899E26ED0C30}"/>
     <hyperlink ref="C37" r:id="rId48" xr:uid="{A76BCC80-6705-4B3C-BCE2-ADCBD9A14322}"/>
+    <hyperlink ref="B39" r:id="rId49" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{0505FF95-F86F-438C-AFE8-5129BA855EAB}"/>
+    <hyperlink ref="C39" r:id="rId50" xr:uid="{3FF4AACC-8542-499D-A2DE-BDE67DC9F496}"/>
+    <hyperlink ref="B40" r:id="rId51" display="https://leetcode.com/problems/remove-linked-list-elements/" xr:uid="{78D23C00-0B54-4D05-8414-348C8006E059}"/>
+    <hyperlink ref="B41" r:id="rId52" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{F161D37B-A8A9-46E4-93C2-3904B61DCAD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FBDB52-7C22-494D-AF7A-EB23EE44489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC3019-B81A-49B3-9733-E0CEA4B283DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="91">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>2 pointer</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
   </si>
 </sst>
 </file>
@@ -409,7 +421,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -691,13 +703,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1653,65 +1665,74 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+      <c r="A39" s="2">
         <v>45</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="4">
         <v>45900</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="2">
         <v>160</v>
       </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>46</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="13">
+      <c r="C40" s="2"/>
+      <c r="D40" s="4">
         <v>45901</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H40" s="12">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2">
         <v>203</v>
       </c>
-      <c r="J40" t="s">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+      <c r="A41" s="2">
         <v>47</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="13">
+      <c r="C41" s="2"/>
+      <c r="D41" s="4">
         <v>45901</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>2</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="2">
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
@@ -1719,6 +1740,89 @@
       </c>
       <c r="J41" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>48</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="4">
+        <v>45901</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="13">
+        <v>83</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>49</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45901</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="12">
+        <v>328</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>50</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45901</v>
+      </c>
+      <c r="H44" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>51</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="4">
+        <v>45901</v>
+      </c>
+      <c r="H45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1775,8 +1879,12 @@
     <hyperlink ref="C39" r:id="rId50" xr:uid="{3FF4AACC-8542-499D-A2DE-BDE67DC9F496}"/>
     <hyperlink ref="B40" r:id="rId51" display="https://leetcode.com/problems/remove-linked-list-elements/" xr:uid="{78D23C00-0B54-4D05-8414-348C8006E059}"/>
     <hyperlink ref="B41" r:id="rId52" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{F161D37B-A8A9-46E4-93C2-3904B61DCAD3}"/>
+    <hyperlink ref="B42" r:id="rId53" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/" xr:uid="{DF89E6B9-5554-47E2-BC3A-41024E45F6A5}"/>
+    <hyperlink ref="B43" r:id="rId54" display="https://leetcode.com/problems/odd-even-linked-list/" xr:uid="{623EDE4D-3916-45F4-AE7E-CD379E9022D0}"/>
+    <hyperlink ref="B44" r:id="rId55" display="https://leetcode.com/problems/add-two-numbers/" xr:uid="{F2F9ABCA-2B16-4EC8-B09A-7C3D4D34F24F}"/>
+    <hyperlink ref="B45" r:id="rId56" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{64A5FA11-C82E-4B19-A5CC-16EC9B08F4EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId53"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC3019-B81A-49B3-9733-E0CEA4B283DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD0B725-FFAE-4693-BAB9-25BA9485B48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -307,6 +307,33 @@
   </si>
   <si>
     <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Rotate List</t>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>04_Linked list\07_remove nth from end.js</t>
+  </si>
+  <si>
+    <t>04_Linked list\08_odd_even sorting.js</t>
+  </si>
+  <si>
+    <t>04_Linked list\09_add numbers.js</t>
+  </si>
+  <si>
+    <t>04_Linked list\10_rotate list.js</t>
+  </si>
+  <si>
+    <t>04_Linked list\11_swap pairs.js</t>
   </si>
 </sst>
 </file>
@@ -358,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -381,23 +408,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -420,8 +436,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -709,7 +723,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1695,7 +1709,9 @@
       <c r="B40" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="D40" s="4">
         <v>45901</v>
       </c>
@@ -1719,7 +1735,9 @@
       <c r="B41" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="D41" s="4">
         <v>45901</v>
       </c>
@@ -1756,7 +1774,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="13">
+      <c r="H42" s="2">
         <v>83</v>
       </c>
       <c r="I42" s="2"/>
@@ -1766,64 +1784,141 @@
       <c r="A43" s="2">
         <v>49</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="6" t="s">
         <v>88</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="D43" s="4">
         <v>45901</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="2">
         <v>328</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>50</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="6" t="s">
         <v>89</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="D44" s="4">
         <v>45901</v>
       </c>
-      <c r="H44" s="12">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2">
         <v>2</v>
       </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>51</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="C45" s="6"/>
       <c r="D45" s="4">
         <v>45901</v>
       </c>
-      <c r="H45">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2">
         <v>21</v>
       </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>52</v>
       </c>
+      <c r="B46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45902</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="2">
+        <v>61</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>53</v>
       </c>
+      <c r="B47" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="4">
+        <v>45902</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" s="2">
+        <v>24</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>54</v>
       </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1883,8 +1978,16 @@
     <hyperlink ref="B43" r:id="rId54" display="https://leetcode.com/problems/odd-even-linked-list/" xr:uid="{623EDE4D-3916-45F4-AE7E-CD379E9022D0}"/>
     <hyperlink ref="B44" r:id="rId55" display="https://leetcode.com/problems/add-two-numbers/" xr:uid="{F2F9ABCA-2B16-4EC8-B09A-7C3D4D34F24F}"/>
     <hyperlink ref="B45" r:id="rId56" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{64A5FA11-C82E-4B19-A5CC-16EC9B08F4EB}"/>
+    <hyperlink ref="B46" r:id="rId57" display="https://leetcode.com/problems/rotate-list/" xr:uid="{253F3C39-D7CA-4B59-8F71-2A70374DCA1D}"/>
+    <hyperlink ref="B47" r:id="rId58" display="https://leetcode.com/problems/swap-nodes-in-pairs/" xr:uid="{AB169266-E1D5-47B9-B721-6B39812D6541}"/>
+    <hyperlink ref="C40" r:id="rId59" xr:uid="{B04B3640-9E4D-4549-963C-99ADD7034ED4}"/>
+    <hyperlink ref="C41" r:id="rId60" xr:uid="{964A19BF-D17B-43FD-BD72-5095F2F4EA35}"/>
+    <hyperlink ref="C43" r:id="rId61" xr:uid="{ABBAAEBB-D173-48C3-AAFD-A78099A528F6}"/>
+    <hyperlink ref="C44" r:id="rId62" xr:uid="{08AE16D3-5FE0-4F8D-9F5E-A82F6163963B}"/>
+    <hyperlink ref="C46" r:id="rId63" xr:uid="{AB32B1F1-2E56-4309-A3ED-A6C22DB71716}"/>
+    <hyperlink ref="C47" r:id="rId64" xr:uid="{95631D94-6745-48A3-B8CB-6C455872EA97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD0B725-FFAE-4693-BAB9-25BA9485B48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADFDED9-6FBC-4A38-8159-8283D4578DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="108">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -334,6 +334,30 @@
   </si>
   <si>
     <t>04_Linked list\11_swap pairs.js</t>
+  </si>
+  <si>
+    <t>Length of Last Word</t>
+  </si>
+  <si>
+    <t>Find Words Containing Character</t>
+  </si>
+  <si>
+    <t>very easy</t>
+  </si>
+  <si>
+    <t>Jewels and Stones</t>
+  </si>
+  <si>
+    <t>Find Most Frequent Vowel and Consonant</t>
+  </si>
+  <si>
+    <t>MAP +set</t>
+  </si>
+  <si>
+    <t>05_Strings\01_length of word.js</t>
+  </si>
+  <si>
+    <t>05_Strings\02_vowels +con.js</t>
   </si>
 </sst>
 </file>
@@ -435,7 +459,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -717,13 +741,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1880,7 +1904,7 @@
       <c r="A47" s="2">
         <v>53</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -1910,15 +1934,103 @@
       <c r="A48" s="2">
         <v>54</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="B48" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="4">
+        <v>45906</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="2">
+        <v>58</v>
+      </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>55</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="4">
+        <v>45906</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H49" s="11">
+        <v>2942</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>56</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="4">
+        <v>45906</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H50" s="11">
+        <v>771</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>57</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="4">
+        <v>45906</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="11">
+        <v>3541</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1986,8 +2098,16 @@
     <hyperlink ref="C44" r:id="rId62" xr:uid="{08AE16D3-5FE0-4F8D-9F5E-A82F6163963B}"/>
     <hyperlink ref="C46" r:id="rId63" xr:uid="{AB32B1F1-2E56-4309-A3ED-A6C22DB71716}"/>
     <hyperlink ref="C47" r:id="rId64" xr:uid="{95631D94-6745-48A3-B8CB-6C455872EA97}"/>
+    <hyperlink ref="B48" r:id="rId65" display="https://leetcode.com/problems/length-of-last-word/" xr:uid="{97EEA8C2-5EFF-45AB-BFE7-34F5F6A8C34A}"/>
+    <hyperlink ref="B49" r:id="rId66" display="https://leetcode.com/problems/find-words-containing-character/" xr:uid="{E69713A2-E265-45F2-8D4C-D9D452A6F6E2}"/>
+    <hyperlink ref="B50" r:id="rId67" display="https://leetcode.com/problems/jewels-and-stones/" xr:uid="{25DF7127-AED0-4209-A471-D682FC7F38D2}"/>
+    <hyperlink ref="B51" r:id="rId68" display="https://leetcode.com/problems/find-most-frequent-vowel-and-consonant/" xr:uid="{47C1E7BF-D095-4A67-91D7-8DB819B626AF}"/>
+    <hyperlink ref="C48" r:id="rId69" xr:uid="{38C261AF-B6A0-4D77-9A2A-68F54226B400}"/>
+    <hyperlink ref="C49" r:id="rId70" xr:uid="{D69AF68B-F626-43A1-8E36-86542B5168DF}"/>
+    <hyperlink ref="C50" r:id="rId71" xr:uid="{7D32453E-37BE-42A0-8E04-E04B904E5C13}"/>
+    <hyperlink ref="C51" r:id="rId72" xr:uid="{C047C155-3115-41FF-AC57-400445A65B66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId65"/>
+  <pageSetup orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADFDED9-6FBC-4A38-8159-8283D4578DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8189AC-79C5-4EE5-8771-09EB2D9DDA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="113">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -358,6 +358,21 @@
   </si>
   <si>
     <t>05_Strings\02_vowels +con.js</t>
+  </si>
+  <si>
+    <t>Split a String in Balanced Strings</t>
+  </si>
+  <si>
+    <t>Reverse String II</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>05_Strings\03_palindrome.js</t>
   </si>
 </sst>
 </file>
@@ -437,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -459,7 +474,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -741,13 +755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1969,10 +1983,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="2">
         <v>2942</v>
       </c>
       <c r="I49" s="2"/>
@@ -1993,10 +2007,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="2">
         <v>771</v>
       </c>
       <c r="I50" s="2"/>
@@ -2019,18 +2033,148 @@
         <v>105</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="2">
         <v>3541</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="2" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>58</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="4">
+        <v>45906</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2">
+        <v>1221</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>59</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="4">
+        <v>45906</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="2">
+        <v>541</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>60</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="4">
+        <v>45906</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2">
+        <v>125</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>61</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>62</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>63</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>64</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2106,8 +2250,14 @@
     <hyperlink ref="C49" r:id="rId70" xr:uid="{D69AF68B-F626-43A1-8E36-86542B5168DF}"/>
     <hyperlink ref="C50" r:id="rId71" xr:uid="{7D32453E-37BE-42A0-8E04-E04B904E5C13}"/>
     <hyperlink ref="C51" r:id="rId72" xr:uid="{C047C155-3115-41FF-AC57-400445A65B66}"/>
+    <hyperlink ref="B52" r:id="rId73" display="https://leetcode.com/problems/split-a-string-in-balanced-strings/" xr:uid="{50BC9ED1-38A1-45F4-BD2C-2F805B8ED905}"/>
+    <hyperlink ref="B53" r:id="rId74" display="https://leetcode.com/problems/reverse-string-ii/" xr:uid="{5CBA2232-5516-4D2B-86CF-FBCF275AAC26}"/>
+    <hyperlink ref="B54" r:id="rId75" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{265AB98A-B735-44CD-9385-1C2DB321BED1}"/>
+    <hyperlink ref="C54" r:id="rId76" xr:uid="{1A6A3A72-F563-477D-A552-D47AF5B4028B}"/>
+    <hyperlink ref="C52" r:id="rId77" xr:uid="{A40DA896-D74B-4D2C-841C-16A1BA4F5D05}"/>
+    <hyperlink ref="C53" r:id="rId78" xr:uid="{6B822DD9-F3C4-4B69-BB40-6B180D8FD5BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId73"/>
+  <pageSetup orientation="portrait" r:id="rId79"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8189AC-79C5-4EE5-8771-09EB2D9DDA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9F2247-3001-47AB-AEFC-EDFEA56FAD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="120">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -373,6 +373,27 @@
   </si>
   <si>
     <t>05_Strings\03_palindrome.js</t>
+  </si>
+  <si>
+    <t>Largest Odd Number in String</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t> Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>05_Strings\06_anagram group.js</t>
+  </si>
+  <si>
+    <t>05_Strings\05_isomorhic.js</t>
+  </si>
+  <si>
+    <t>05_Strings\04_largestno.js</t>
   </si>
 </sst>
 </file>
@@ -479,7 +500,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -758,10 +790,10 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48:D54"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2124,13 +2156,21 @@
       <c r="A55" s="2">
         <v>61</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="B55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="4">
+        <v>45909</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <v>1903</v>
+      </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
@@ -2138,13 +2178,21 @@
       <c r="A56" s="2">
         <v>62</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="B56" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="4">
+        <v>45909</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <v>242</v>
+      </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
@@ -2152,31 +2200,62 @@
       <c r="A57" s="2">
         <v>63</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="B57" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="4">
+        <v>45909</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="2">
+        <v>205</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>64</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="B58" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="4">
+        <v>45909</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
+      <c r="G58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="2">
+        <v>49</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" xr:uid="{DE7DA128-BD40-4560-99AF-F106470C04A5}"/>
     <hyperlink ref="C8" r:id="rId2" xr:uid="{14E8FDE0-F81B-4B72-90F7-C976F42CFC65}"/>
@@ -2256,8 +2335,16 @@
     <hyperlink ref="C54" r:id="rId76" xr:uid="{1A6A3A72-F563-477D-A552-D47AF5B4028B}"/>
     <hyperlink ref="C52" r:id="rId77" xr:uid="{A40DA896-D74B-4D2C-841C-16A1BA4F5D05}"/>
     <hyperlink ref="C53" r:id="rId78" xr:uid="{6B822DD9-F3C4-4B69-BB40-6B180D8FD5BB}"/>
+    <hyperlink ref="B55" r:id="rId79" display="https://leetcode.com/problems/largest-odd-number-in-string/" xr:uid="{3140E432-CE9E-432E-9CB5-F6CDF4E0680D}"/>
+    <hyperlink ref="B56" r:id="rId80" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{520F38E9-A166-4C37-9B48-35A9E163214A}"/>
+    <hyperlink ref="B57" r:id="rId81" display="https://leetcode.com/problems/isomorphic-strings/" xr:uid="{816BC69B-CA4D-4C05-83C4-4B40194FB3EE}"/>
+    <hyperlink ref="B58" r:id="rId82" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{ABAFC298-5B87-4004-AFD3-D2FB045F50CE}"/>
+    <hyperlink ref="C58" r:id="rId83" xr:uid="{F714FCC1-35B8-478F-9A46-F9A488A01A0F}"/>
+    <hyperlink ref="C57" r:id="rId84" xr:uid="{8A245F98-68AE-461C-B7E9-5BDC8E84D1E5}"/>
+    <hyperlink ref="C56" r:id="rId85" xr:uid="{06B9BAA8-6A27-41FB-BE18-54FA76E3D929}"/>
+    <hyperlink ref="C55" r:id="rId86" xr:uid="{5C3CD3D3-DEC0-4018-AC4A-36F61B8CFEBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId79"/>
+  <pageSetup orientation="portrait" r:id="rId87"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9F2247-3001-47AB-AEFC-EDFEA56FAD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4F74D2-0669-40CC-BD35-18198C96C263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="123">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>05_Strings\04_largestno.js</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queues</t>
+  </si>
+  <si>
+    <t>tricky</t>
+  </si>
+  <si>
+    <t>Implement Queue using Stacks</t>
   </si>
 </sst>
 </file>
@@ -445,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -468,12 +477,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -495,6 +515,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -787,13 +809,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2249,6 +2271,47 @@
         <v>30</v>
       </c>
       <c r="J58" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="E59" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="12">
+        <v>225</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="12">
+        <v>232</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2343,8 +2406,10 @@
     <hyperlink ref="C57" r:id="rId84" xr:uid="{8A245F98-68AE-461C-B7E9-5BDC8E84D1E5}"/>
     <hyperlink ref="C56" r:id="rId85" xr:uid="{06B9BAA8-6A27-41FB-BE18-54FA76E3D929}"/>
     <hyperlink ref="C55" r:id="rId86" xr:uid="{5C3CD3D3-DEC0-4018-AC4A-36F61B8CFEBF}"/>
+    <hyperlink ref="B59" r:id="rId87" display="https://leetcode.com/problems/implement-stack-using-queues/" xr:uid="{6FBD4AF2-DBAA-4E6E-A0A9-9B31F90C7601}"/>
+    <hyperlink ref="B60" r:id="rId88" display="https://leetcode.com/problems/implement-queue-using-stacks/" xr:uid="{A6C672A0-B838-424D-81B7-3D2E44CADE3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId87"/>
+  <pageSetup orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4F74D2-0669-40CC-BD35-18198C96C263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11E97C5-2062-4FF1-A7F2-183ACD6F20D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="127">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -403,6 +404,18 @@
   </si>
   <si>
     <t>Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>06_Stack and queue\03_parenthesis.js</t>
+  </si>
+  <si>
+    <t>06_Stack and queue\01_Stack and queue.js</t>
+  </si>
+  <si>
+    <t>06_Stack and queue\02_queue using stack.js</t>
   </si>
 </sst>
 </file>
@@ -493,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -516,7 +529,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -809,13 +824,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2275,10 +2290,18 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>65</v>
+      </c>
       <c r="B59" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="11"/>
+      <c r="C59" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="14">
+        <v>45911</v>
+      </c>
       <c r="E59" t="s">
         <v>121</v>
       </c>
@@ -2296,9 +2319,18 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>66</v>
+      </c>
       <c r="B60" s="11" t="s">
         <v>122</v>
       </c>
+      <c r="C60" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="14">
+        <v>45911</v>
+      </c>
       <c r="E60" t="s">
         <v>121</v>
       </c>
@@ -2313,6 +2345,26 @@
       </c>
       <c r="J60" s="2" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>67</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="14">
+        <v>45918</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="13">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2408,8 +2460,24 @@
     <hyperlink ref="C55" r:id="rId86" xr:uid="{5C3CD3D3-DEC0-4018-AC4A-36F61B8CFEBF}"/>
     <hyperlink ref="B59" r:id="rId87" display="https://leetcode.com/problems/implement-stack-using-queues/" xr:uid="{6FBD4AF2-DBAA-4E6E-A0A9-9B31F90C7601}"/>
     <hyperlink ref="B60" r:id="rId88" display="https://leetcode.com/problems/implement-queue-using-stacks/" xr:uid="{A6C672A0-B838-424D-81B7-3D2E44CADE3B}"/>
+    <hyperlink ref="B61" r:id="rId89" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{6370A168-A5E3-4DCF-A316-8A913A08CC76}"/>
+    <hyperlink ref="C61" r:id="rId90" xr:uid="{D80FEFFE-14E7-4FB2-A201-9ED86C8EB322}"/>
+    <hyperlink ref="C59" r:id="rId91" xr:uid="{8BCE03E5-9CBE-4BFA-855F-6A235A2D0841}"/>
+    <hyperlink ref="C60" r:id="rId92" xr:uid="{369184D4-30B0-4EBC-9B74-DF645F8A3F5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId89"/>
+  <pageSetup orientation="portrait" r:id="rId93"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5070D1AD-7426-4681-94D5-AB416675DADC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/List of questions .xlsx
+++ b/List of questions .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NamasteDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11E97C5-2062-4FF1-A7F2-183ACD6F20D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404353F7-80D5-49E7-BEDD-43ACEF228535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
   <si>
     <t>Print all even nos of an array</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>06_Stack and queue\02_queue using stack.js</t>
+  </si>
+  <si>
+    <t> Min Stack</t>
   </si>
 </sst>
 </file>
@@ -530,8 +533,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -824,13 +827,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2299,7 +2302,7 @@
       <c r="C59" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="13">
         <v>45911</v>
       </c>
       <c r="E59" t="s">
@@ -2328,7 +2331,7 @@
       <c r="C60" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="13">
         <v>45911</v>
       </c>
       <c r="E60" t="s">
@@ -2357,14 +2360,28 @@
       <c r="C61" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="13">
         <v>45918</v>
       </c>
       <c r="G61" t="s">
         <v>36</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="12">
         <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="13">
+        <v>45919</v>
+      </c>
+      <c r="G62" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" s="14">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2464,9 +2481,10 @@
     <hyperlink ref="C61" r:id="rId90" xr:uid="{D80FEFFE-14E7-4FB2-A201-9ED86C8EB322}"/>
     <hyperlink ref="C59" r:id="rId91" xr:uid="{8BCE03E5-9CBE-4BFA-855F-6A235A2D0841}"/>
     <hyperlink ref="C60" r:id="rId92" xr:uid="{369184D4-30B0-4EBC-9B74-DF645F8A3F5F}"/>
+    <hyperlink ref="B62" r:id="rId93" display="https://leetcode.com/problems/min-stack/" xr:uid="{8866E302-AB5C-44ED-9203-AE27FF433760}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId93"/>
+  <pageSetup orientation="portrait" r:id="rId94"/>
 </worksheet>
 </file>
 
